--- a/MySheet.xlsx
+++ b/MySheet.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
     <sheet name="Register" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" sheetId="3" r:id="rId3"/>
+    <sheet name="Account" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Home</t>
   </si>
@@ -42,6 +44,33 @@
   </si>
   <si>
     <t>Chennai</t>
+  </si>
+  <si>
+    <t>UseName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>Raju</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Accont No</t>
+  </si>
+  <si>
+    <t>Account Name</t>
+  </si>
+  <si>
+    <t>Accoutnt Type</t>
+  </si>
+  <si>
+    <t>Saving</t>
   </si>
 </sst>
 </file>
@@ -415,7 +444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -459,4 +488,80 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1452</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>